--- a/Calendario-participacion.xlsx
+++ b/Calendario-participacion.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t xml:space="preserve">Unidad</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gerardo Pérez Ponce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana Santa</t>
   </si>
   <si>
     <t xml:space="preserve">Genética del paisaje</t>
@@ -132,6 +135,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,9 +157,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +217,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFE8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE8F5E9"/>
         <bgColor rgb="FFE3F2FD"/>
       </patternFill>
@@ -251,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,7 +295,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,7 +347,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,12 +363,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,7 +379,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFEBEE"/>
+      <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -399,7 +414,7 @@
       <rgbColor rgb="FFE8F5E9"/>
       <rgbColor rgb="FFEFEBE9"/>
       <rgbColor rgb="FFFBE9E7"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFEBEE"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCBC"/>
@@ -435,13 +450,13 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,10 +742,10 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.84"/>
@@ -753,7 +768,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>45320</v>
+        <v>45684</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -768,7 +783,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <f aca="false">A2+1</f>
-        <v>45321</v>
+        <v>45685</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -783,7 +798,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <f aca="false">A3+1</f>
-        <v>45322</v>
+        <v>45686</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -798,7 +813,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <f aca="false">A4+2</f>
-        <v>45324</v>
+        <v>45688</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -813,7 +828,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <f aca="false">A2+7</f>
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>28</v>
@@ -826,7 +841,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <f aca="false">A3+7</f>
-        <v>45328</v>
+        <v>45692</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
@@ -841,7 +856,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">A4+7</f>
-        <v>45329</v>
+        <v>45693</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
@@ -856,7 +871,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <f aca="false">A5+7</f>
-        <v>45331</v>
+        <v>45695</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>9</v>
@@ -871,7 +886,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <f aca="false">A6+7</f>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -886,7 +901,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <f aca="false">A7+7</f>
-        <v>45335</v>
+        <v>45699</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>9</v>
@@ -901,7 +916,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
         <f aca="false">A8+7</f>
-        <v>45336</v>
+        <v>45700</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>9</v>
@@ -916,7 +931,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <f aca="false">A9+7</f>
-        <v>45338</v>
+        <v>45702</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
@@ -931,7 +946,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <f aca="false">A10+7</f>
-        <v>45341</v>
+        <v>45705</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>9</v>
@@ -946,7 +961,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">A11+7</f>
-        <v>45342</v>
+        <v>45706</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
@@ -961,7 +976,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">A12+7</f>
-        <v>45343</v>
+        <v>45707</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
@@ -976,7 +991,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">A13+7</f>
-        <v>45345</v>
+        <v>45709</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
@@ -991,7 +1006,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">A14+7</f>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>11</v>
@@ -1006,7 +1021,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">A15+7</f>
-        <v>45349</v>
+        <v>45713</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
@@ -1021,7 +1036,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">A16+7</f>
-        <v>45350</v>
+        <v>45714</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>11</v>
@@ -1036,7 +1051,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="n">
         <f aca="false">A17+7</f>
-        <v>45352</v>
+        <v>45716</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>13</v>
@@ -1051,7 +1066,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="n">
         <f aca="false">A18+7</f>
-        <v>45355</v>
+        <v>45719</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>13</v>
@@ -1066,7 +1081,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
         <f aca="false">A19+7</f>
-        <v>45356</v>
+        <v>45720</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>13</v>
@@ -1081,7 +1096,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="n">
         <f aca="false">A20+7</f>
-        <v>45357</v>
+        <v>45721</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>13</v>
@@ -1096,7 +1111,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <f aca="false">A21+7</f>
-        <v>45359</v>
+        <v>45723</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>13</v>
@@ -1111,7 +1126,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <f aca="false">A22+7</f>
-        <v>45362</v>
+        <v>45726</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>13</v>
@@ -1126,7 +1141,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <f aca="false">A23+7</f>
-        <v>45363</v>
+        <v>45727</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>29</v>
@@ -1141,7 +1156,7 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <f aca="false">A24+7</f>
-        <v>45364</v>
+        <v>45728</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>29</v>
@@ -1156,7 +1171,7 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">A25+7</f>
-        <v>45366</v>
+        <v>45730</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>29</v>
@@ -1171,7 +1186,7 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
         <f aca="false">A26+7</f>
-        <v>45369</v>
+        <v>45733</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>29</v>
@@ -1186,7 +1201,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
         <f aca="false">A27+7</f>
-        <v>45370</v>
+        <v>45734</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>21</v>
@@ -1201,7 +1216,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
         <f aca="false">A28+7</f>
-        <v>45371</v>
+        <v>45735</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>21</v>
@@ -1216,7 +1231,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
         <f aca="false">A29+7</f>
-        <v>45373</v>
+        <v>45737</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>21</v>
@@ -1230,8 +1245,8 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
-        <f aca="false">A30+14</f>
-        <v>45383</v>
+        <f aca="false">A30+7</f>
+        <v>45740</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>21</v>
@@ -1246,7 +1261,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
         <f aca="false">A31+14</f>
-        <v>45384</v>
+        <v>45748</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>21</v>
@@ -1261,7 +1276,7 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
         <f aca="false">A32+14</f>
-        <v>45385</v>
+        <v>45749</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>21</v>
@@ -1276,7 +1291,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="n">
         <f aca="false">A33+14</f>
-        <v>45387</v>
+        <v>45751</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>20</v>
@@ -1291,7 +1306,7 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="n">
         <f aca="false">A34+7</f>
-        <v>45390</v>
+        <v>45747</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>20</v>
@@ -1306,7 +1321,7 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="n">
         <f aca="false">A35+7</f>
-        <v>45391</v>
+        <v>45755</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>20</v>
@@ -1321,7 +1336,7 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="n">
         <f aca="false">A36+7</f>
-        <v>45392</v>
+        <v>45756</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>20</v>
@@ -1336,7 +1351,7 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="n">
         <f aca="false">A37+7</f>
-        <v>45394</v>
+        <v>45758</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>20</v>
@@ -1351,215 +1366,229 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="n">
         <f aca="false">A38+7</f>
-        <v>45397</v>
+        <v>45754</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <v>11</v>
-      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="n">
         <f aca="false">A39+7</f>
-        <v>45398</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="21" t="n">
-        <v>11</v>
-      </c>
+        <v>45762</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="n">
         <f aca="false">A40+7</f>
-        <v>45399</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="21" t="n">
-        <v>11</v>
-      </c>
+        <v>45763</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="n">
         <f aca="false">A41+7</f>
-        <v>45401</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="21" t="s">
+        <v>45765</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="22" t="n">
+        <f aca="false">A42+7</f>
+        <v>45761</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="21" t="n">
+      <c r="D46" s="23" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="n">
-        <f aca="false">A42+7</f>
-        <v>45404</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="21" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="n">
+        <f aca="false">A43+7</f>
+        <v>45769</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="21" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="n">
-        <f aca="false">A43+7</f>
-        <v>45405</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="n">
+        <f aca="false">A44+7</f>
+        <v>45770</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="21" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
-        <f aca="false">A44+7</f>
-        <v>45406</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="D48" s="23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22" t="n">
+        <f aca="false">A45+7</f>
+        <v>45772</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22" t="n">
+        <f aca="false">A46+7</f>
+        <v>45768</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="n">
+        <f aca="false">A47+7</f>
+        <v>45776</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="n">
+        <f aca="false">A48+7</f>
+        <v>45777</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
-        <f aca="false">A45+7</f>
-        <v>45408</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="C52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="n">
+        <f aca="false">A49+7</f>
+        <v>45779</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1570,7 +1599,7 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B42:D45"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B60:C60"/>
   </mergeCells>

--- a/Calendario-participacion.xlsx
+++ b/Calendario-participacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t xml:space="preserve">Unidad</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Filogeografía y aplicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grecia Montalvo</t>
   </si>
   <si>
     <t xml:space="preserve">Brenda Solórzano</t>
@@ -347,7 +350,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.53"/>
@@ -600,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">D6/16</f>
@@ -613,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="false">C7</f>
@@ -625,10 +628,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">D7/16</f>
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">C8</f>
@@ -653,10 +656,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">D8/16</f>
@@ -675,7 +678,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -711,7 +714,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="n">
@@ -741,11 +744,11 @@
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.84"/>
@@ -754,16 +757,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +834,7 @@
         <v>45691</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="n">
@@ -1144,10 +1147,10 @@
         <v>45727</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="n">
         <v>7</v>
@@ -1159,10 +1162,10 @@
         <v>45728</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="n">
         <v>7</v>
@@ -1174,10 +1177,10 @@
         <v>45730</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="17" t="n">
         <v>7</v>
@@ -1189,10 +1192,10 @@
         <v>45733</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="n">
         <v>8</v>
@@ -1204,7 +1207,7 @@
         <v>45734</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>10</v>
@@ -1219,7 +1222,7 @@
         <v>45735</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>10</v>
@@ -1234,7 +1237,7 @@
         <v>45737</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>10</v>
@@ -1249,7 +1252,7 @@
         <v>45740</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>10</v>
@@ -1264,7 +1267,7 @@
         <v>45748</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>10</v>
@@ -1279,7 +1282,7 @@
         <v>45749</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>10</v>
@@ -1294,10 +1297,10 @@
         <v>45751</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D37" s="19" t="n">
         <v>9</v>
@@ -1309,10 +1312,10 @@
         <v>45747</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D38" s="19" t="n">
         <v>10</v>
@@ -1324,10 +1327,10 @@
         <v>45755</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D39" s="19" t="n">
         <v>10</v>
@@ -1339,10 +1342,10 @@
         <v>45756</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D40" s="19" t="n">
         <v>10</v>
@@ -1354,10 +1357,10 @@
         <v>45758</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D41" s="19" t="n">
         <v>10</v>
@@ -1369,7 +1372,7 @@
         <v>45754</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -1407,10 +1410,10 @@
         <v>45761</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="23" t="n">
         <v>11</v>
@@ -1422,10 +1425,10 @@
         <v>45769</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="23" t="n">
         <v>11</v>
@@ -1437,10 +1440,10 @@
         <v>45770</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" s="23" t="n">
         <v>11</v>
@@ -1452,10 +1455,10 @@
         <v>45772</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="23" t="n">
         <v>11</v>
@@ -1467,10 +1470,10 @@
         <v>45768</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" s="23" t="n">
         <v>12</v>
@@ -1482,10 +1485,10 @@
         <v>45776</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="23" t="n">
         <v>12</v>
@@ -1497,7 +1500,7 @@
         <v>45777</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>10</v>
@@ -1512,7 +1515,7 @@
         <v>45779</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>10</v>
